--- a/excel/resto.xlsx
+++ b/excel/resto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\dinaspariwisatanew\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5C2E91-279D-4768-911B-26BECC321F5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B41182-6FE6-444F-B4B1-732953452D2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="3760" windowWidth="14400" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4070" yWindow="840" windowWidth="14400" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="resto" sheetId="1" r:id="rId1"/>
@@ -678,7 +678,7 @@
   </sheetPr>
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G35" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="O51" sqref="O51"/>
     </sheetView>
   </sheetViews>
